--- a/aggregated_output/FIJI_aggregated.xlsx
+++ b/aggregated_output/FIJI_aggregated.xlsx
@@ -438,35 +438,35 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The syllabus is a critical document that outlines the course structure, requirements, and schedule. Given Abi's motivation to accomplish tasks and their comprehensive information processing style, they would likely consider finding the syllabus as an essential step toward planning their term and understanding what needs to be done to complete the course.</t>
+Why: The syllabus is a critical document that outlines the course structure, requirements, and schedule. Given Abi's motivation to accomplish tasks and plan their term, they would likely consider finding the syllabus as an essential step. Additionally, Abi's comprehensive information processing style would lead them to seek out the syllabus to gather all necessary information about the course.</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The syllabus is a critical document that outlines the course structure, requirements, and schedule. Given Abi's motivation to accomplish tasks and plan their term, they would consider finding the syllabus as an essential step. Additionally, Abi's comprehensive information processing style would lead them to seek out the syllabus to gather all necessary information about the course.</t>
+Why: The syllabus is a critical document that outlines the course structure, requirements, and schedule. Given Abi's motivation to accomplish tasks and plan their term, they would likely consider finding the syllabus as an essential step. Additionally, Abi's comprehensive information processing style would lead them to seek out detailed information about the course, which the syllabus provides.</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The syllabus is a critical document that outlines the course structure, requirements, and schedule. Given Abi's motivation to accomplish tasks and plan their term, they would consider finding the syllabus as an essential step. Additionally, Abi's comprehensive information processing style would lead them to seek out the syllabus to gather all necessary information about the course.</t>
+Why: The syllabus is a critical document that outlines the course structure, requirements, and schedule. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would recognize that finding the syllabus is an essential step toward planning her term and understanding what needs to be done to complete the course.</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The syllabus is a critical document that outlines the course structure, requirements, and schedule. Given Abi's motivation to accomplish tasks and plan their term, they would consider finding the syllabus as an essential step. Additionally, Abi's comprehensive information processing style would lead them to seek out the syllabus to gather all necessary information about the course.</t>
+Why: The syllabus is a critical document that outlines the course structure, requirements, and schedule. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely consider finding the syllabus as an essential step toward planning her term and understanding what needs to be done to complete the course. The syllabus is explicitly mentioned on the homepage, reinforcing its importance.</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The syllabus is a critical document that outlines the course structure, requirements, and schedule. Given Abi's motivation to accomplish tasks and their comprehensive information processing style, they would likely consider finding the syllabus as an essential step toward planning their term and understanding what needs to be done to complete the course.</t>
+Facets: Motivations, Information Processing Style
+Why: The syllabus is a critical document that outlines the course structure, requirements, and schedule. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely consider finding the syllabus as an essential step toward planning her term and understanding what needs to be done to complete the course.</t>
         </is>
       </c>
     </row>
@@ -475,35 +475,35 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly indicates that the syllabus is an important document to read, as it contains a lot of important information. The word "Syllabus" is highlighted and mentioned multiple times, both in the main content area and in the left navigation pane. This aligns with Abi's motivation to accomplish tasks and their comprehensive information processing style, making it clear that finding the syllabus is a necessary step.</t>
+Why: The page clearly indicates that the syllabus is an important document to read, as it contains a lot of important information. The word "Syllabus" is highlighted and mentioned multiple times, both in the main content area and in the left navigation pane. This aligns with Abi's motivation to accomplish tasks and gather comprehensive information. The clear instructions and emphasis on the syllabus make it easy for Abi to know what to do at this step.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly indicates that the syllabus is an important document to read, as it contains a lot of important information. The word "Syllabus" is highlighted and mentioned multiple times, both in the main text and in the left navigation pane. This aligns with Abi's motivation to accomplish tasks and gather comprehensive information. The clear instructions and emphasis on the syllabus make it evident to Abi that finding the syllabus page is a necessary step.</t>
+Why: The page clearly indicates that the syllabus is an important document to read, as it contains a lot of important information. The word "Syllabus" is highlighted and mentioned multiple times, both in the main text and in the left navigation pane. This aligns with Abi's motivation to accomplish tasks and gather comprehensive information. The clear instructions and visibility of the "Syllabus" link make it easy for Abi to know what to do at this step.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly indicates that the syllabus is an important document to read, as it contains a lot of important information. The text explicitly instructs the user to click on "Syllabus" in the left pane, making it straightforward for Abi to know what to do. This aligns with Abi's motivation to accomplish tasks and their comprehensive information processing style, as they are likely to follow clear instructions to gather necessary information.</t>
+Why: The page clearly indicates that the syllabus is an important document to read, as it contains a lot of important information. The word "Syllabus" is highlighted and mentioned multiple times, both in the main text and in the left navigation pane. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she will recognize the importance of accessing the syllabus to plan her term effectively.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly indicates that the syllabus is an important document to read, as it contains a lot of important information. The word "Syllabus" is highlighted and mentioned multiple times, both in the main text and in the left navigation pane. This aligns with Abi's motivation to accomplish tasks and gather comprehensive information. The clear instructions and emphasis on the syllabus make it easy for Abi to know what to do at this step.</t>
+Why: The page clearly indicates that the syllabus is an important document to read, as it contains a lot of important information. The word "Syllabus" is highlighted and mentioned multiple times, both in the main content area and in the left navigation pane. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would recognize the importance of the syllabus and know to click on it to proceed.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly indicates that the syllabus is an important document to read and provides a direct link to it in the left pane. The instructions in the main content area also explicitly mention clicking on "Syllabus" in the left pane. This aligns with Abi's motivation to accomplish tasks and their comprehensive information processing style, as the necessary information and steps are clearly laid out.</t>
+Facets: Information Processing Style, Learning Style
+Why: The page clearly indicates that the syllabus is an important document and provides explicit instructions to click on "Syllabus" in the left pane. This aligns with Abi's comprehensive information processing style and preference for process-oriented learning. The clear instructions and visible link make it straightforward for Abi to know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -512,35 +512,35 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the "Syllabus" link, Abi lands on a page titled "Course Syllabus," which clearly indicates that they are in the right place. The page provides detailed information, including a weekly schedule and links to various syllabus-related documents. This aligns with Abi's motivation to accomplish tasks and their comprehensive information processing style, as the page offers a clear and detailed overview of what is required to complete the course.</t>
+Why: After clicking on the Syllabus link, Abi lands on a page titled "Course Syllabus," which clearly indicates that they are in the right place. The page provides detailed information, including a weekly schedule of readings and projects, which aligns with Abi's motivation to plan their term and gather comprehensive information. The presence of additional links and documents related to the syllabus further supports Abi's information processing style, allowing them to access all necessary details to understand the course requirements and schedule.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Upon landing on the syllabus page, Abi will see a detailed weekly schedule and various links to important documents and policies. This comprehensive layout aligns with Abi's motivation to gather all necessary information to plan their term. The clear presentation of the weekly schedule and additional resources will make Abi feel confident that they are making progress toward their goal and have the information needed to complete the course.</t>
+Why: After clicking on the "Syllabus" link, Abi lands on a page titled "Course Syllabus," which clearly indicates that they are in the right place. The page provides detailed information, including a weekly schedule and links to various syllabus-related documents. This aligns with Abi's motivation to gather comprehensive information to plan their term and their information processing style, which involves reading and understanding detailed information. The clear layout and relevant content ensure that Abi knows they are making progress toward their goal.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Upon landing on the Syllabus page, Abi will see a detailed weekly schedule and various links to important documents and policies. This comprehensive layout provides all the necessary information to understand the course structure and requirements. Abi's motivation to plan their term and their comprehensive information processing style will be satisfied by the detailed and organized presentation of the syllabus, confirming that they are making progress toward their goal.</t>
+Why: After clicking on the "Syllabus" link, Abi lands on a page titled "Course Syllabus," which clearly indicates that she is in the right place. The page provides a detailed weekly schedule, which is essential for planning the term. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she will have access to all the necessary information to understand what needs to be done to complete the course.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the "Syllabus" link, Abi lands on a page titled "Course Syllabus," which clearly indicates that they are in the right place. The page provides a detailed weekly schedule, which is essential for planning the term. This aligns with Abi's motivation to gather comprehensive information and plan their tasks. The detailed breakdown of what is due each week helps Abi understand the course requirements and deadlines, confirming that they are making progress toward their goal.</t>
+Why: After clicking on the "Syllabus" link, Abi lands on a page titled "Course Syllabus," which clearly indicates that she is in the right place. The page provides a detailed weekly schedule, which aligns with her motivation to plan her term and understand what needs to be done to complete the course. The comprehensive information available on this page, including the weekly schedule and links to additional resources, supports her information processing style, ensuring she has all the necessary details to proceed.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the "Syllabus" link, Abi lands on a page titled "Course Syllabus," which clearly indicates that they are in the right place. The page provides detailed information about the weekly schedule, assignments, and other important course details. This aligns with Abi's motivation to accomplish tasks and their comprehensive information processing style, as the page offers a thorough overview of what needs to be done to complete the course.</t>
+Facets: Information Processing Style, Motivations
+Why: After clicking on the "Syllabus" link, Abi lands on a page titled "Course Syllabus," which includes detailed information about the weekly schedule and assignments. This aligns with Abi's comprehensive information processing style, as the page provides a clear and structured overview of what is due each week. The presence of detailed information and the clear labeling of the page will help Abi know that she is making progress toward her goal of planning her term.</t>
         </is>
       </c>
     </row>
@@ -549,35 +549,35 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: To plan their term effectively, Abi needs to know the activities and deadlines for the course. A summary of activities and deadlines is essential for understanding the course requirements and managing time effectively. Given Abi's motivation to accomplish tasks and their comprehensive information processing style, they would consider finding this summary as a crucial step toward achieving the overall use case of planning their term.</t>
+Why: To plan their term effectively, Abi needs to know the activities and deadlines for the course. The summary of activities and deadlines is crucial for understanding the course requirements and managing their time. Given Abi's motivation to accomplish tasks and their comprehensive information processing style, they would consider finding this summary as an essential step toward achieving their overall goal of planning their term.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: To plan their term effectively, Abi needs to know the summary of activities and deadlines. This information is crucial for understanding the course requirements and managing their time. Given Abi's motivation to accomplish tasks and their comprehensive information processing style, they would consider finding the summary of activities and deadlines as an essential step toward achieving the overall use case. The syllabus page, which includes a weekly schedule, aligns with this need.</t>
+Why: To plan their term effectively, Abi would need to know the summary of activities and deadlines. This information is crucial for understanding the course requirements and managing their time. Given Abi's motivation to accomplish tasks and their comprehensive information processing style, they would consider finding the summary of activities and deadlines as an essential step toward achieving the overall use case. The syllabus page, which includes a weekly schedule, aligns with this need.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: To plan their term effectively, Abi needs to know the summary of activities and deadlines. This information is crucial for understanding the course requirements and managing their time. Given Abi's motivation to accomplish tasks and their comprehensive information processing style, they would consider finding the summary of activities and deadlines as an essential step toward achieving their overall goal of planning the term.</t>
+Why: To plan her term effectively, Abi needs to know the summary of activities and deadlines. This information is crucial for understanding the course requirements and managing her time. Given her motivation to accomplish tasks and her comprehensive information processing style, Abi would consider finding the summary of activities and deadlines as a necessary step toward achieving her overall goal of completing the course.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: To plan their term effectively, Abi needs to know the summary of activities and deadlines. This information is crucial for understanding the course requirements and managing their time. Given Abi's motivation to accomplish tasks and their comprehensive information processing style, they would consider finding the summary of activities and deadlines as an essential step toward achieving the overall use case. The syllabus page, which includes a weekly schedule, aligns with this need.</t>
+Why: To plan her term effectively, Abi needs to know the activities and deadlines for the course. Finding a summary of these activities and deadlines is crucial for her to understand what is expected and when. Given her motivation to accomplish tasks and her comprehensive information processing style, she would consider this step essential to achieving her overall goal of planning her term. The syllabus page, which includes a weekly schedule, aligns well with this subgoal.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: To plan their term effectively, Abi needs to know the summary of activities and deadlines. This information is crucial for understanding the course requirements and managing their time. Given Abi's motivation to accomplish tasks and their comprehensive information processing style, they would consider finding the summary of activities and deadlines as an essential step toward achieving the overall use case. The syllabus page, which includes a weekly schedule and due dates, directly supports this subgoal.</t>
+Facets: Motivations, Information Processing Style
+Why: To plan her term effectively, Abi needs to know the summary of activities and deadlines. This information is crucial for understanding the course requirements and managing her time. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would consider finding the summary of activities and deadlines as an essential step toward achieving her overall goal of completing the course.</t>
         </is>
       </c>
     </row>
@@ -586,72 +586,72 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page is well-structured and clearly labeled, with a "Course Summary" section that is prominently displayed. Abi's motivation to accomplish tasks and their comprehensive information processing style will guide them to scroll down and read through the "Course Summary" to find the summary of activities and deadlines. The layout and headings make it clear what information is available, making it easy for Abi to know what to do at this step.</t>
+Why: The page is well-structured and clearly labeled, with a "Course Summary" section that is prominently displayed. The "Syllabus – Weekly schedule" table provides a detailed breakdown of activities and deadlines, which aligns with Abi's motivation to plan their term and gather comprehensive information. The layout and labeling make it easy for Abi to know that they need to scroll down to find the summary of activities and deadlines. This aligns with Abi's information processing style, as they prefer to gather all necessary information comprehensively.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly labels the "Course Summary" section, which is prominently displayed and easy to locate. The detailed weekly schedule under "Syllabus – Weekly schedule" provides a comprehensive overview of activities and deadlines. This aligns with Abi's motivation to gather all necessary information to plan their term and their comprehensive information processing style. The layout and labeling make it clear what Abi needs to do next, which is to scroll down and read through the course summary.</t>
+Why: The page is clearly labeled with "Course Syllabus" and includes a section titled "Course Summary," which is prominently displayed. This aligns with Abi's motivation to gather comprehensive information to plan their term. The layout is straightforward, and the "Syllabus – Weekly schedule" table provides a clear summary of activities and deadlines. Abi's information processing style, which involves reading and understanding detailed information, will guide them to scroll down and read through the "Course Summary" section.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The page is well-organized and clearly labeled, with a "Course Summary" section that is easy to locate. Abi's comprehensive information processing style and preference for process-oriented learning will guide them to scroll down and read through the "Course Summary" to gather the necessary information about activities and deadlines. The layout and labeling make it straightforward for Abi to know what to do at this step.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page is clearly labeled "Course Syllabus" and includes a section titled "Course Summary," which is prominently displayed. This aligns with Abi's motivation to find the summary of activities and deadlines. Additionally, the page layout and headings make it straightforward for Abi to understand that she needs to scroll down to read through the "Course Summary." This aligns with her comprehensive information processing style, as she will recognize that this section contains the detailed information she needs to plan her term.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page is clearly labeled with "Course Syllabus" and includes a section titled "Course Summary," which is prominently displayed. This aligns with Abi's motivation to gather comprehensive information and plan their term. The layout and headings make it clear that scrolling down to the "Course Summary" will provide the necessary details about activities and deadlines. The page is well-organized and provides a logical flow of information, making it easy for Abi to know what to do at this step.</t>
+Why: The page is well-structured and clearly labeled, with a "Course Summary" section that is prominently displayed. Abi, motivated to plan her term and understand the course requirements, would recognize the importance of this section. The layout and headings make it clear that scrolling down to read the "Course Summary" will provide the necessary information about activities and deadlines. This aligns with her comprehensive information processing style, as she would be inclined to read through the detailed schedule to gather all relevant information.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The page is well-organized and clearly labeled, with a "Course Summary" section that is easy to locate. Abi's comprehensive information processing style and preference for process-oriented learning will guide them to scroll down and read through the "Course Summary" to find the summary of activities and deadlines. The layout and labeling of the page support this action, making it straightforward for Abi to know what to do at this step.</t>
+Facets: Information Processing Style, Learning Style
+Why: The page is well-organized and clearly labeled with a "Course Summary" section that includes a detailed weekly schedule. Abi's comprehensive information processing style and preference for structured, process-oriented learning will guide her to scroll down and read through the "Course Summary" to find the summary of activities and deadlines. The layout and labeling make it clear what she needs to do at this step.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After scrolling down to the "Course Summary" section, Abi will see a detailed "Syllabus – Weekly schedule" table that outlines the activities and deadlines for each week. This table provides comprehensive information about what is due and when, which aligns with Abi's motivation to plan their term and gather all necessary details. The clear and structured presentation of the information will help Abi know that they are making progress toward their goal and have the information they need.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While the "Syllabus – Weekly schedule" provides a detailed list of activities and deadlines, it may not be immediately clear to Abi that this is the comprehensive summary they need. The page contains multiple sections and links, which could be overwhelming. Abi's comprehensive information processing style means they need to be sure they have all the necessary information, and their low computer self-efficacy might make them doubt if they have found everything they need. The presence of additional links and documents might make Abi unsure if they have all the information required to plan their term effectively.</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After scrolling down to the "Course Summary" section, Abi will see a detailed weekly schedule that outlines the activities and deadlines. This clear and organized presentation of information will help Abi understand that they are making progress toward their goal of planning their term. The comprehensive details provided in the schedule align with Abi's motivation to gather all necessary information and their preference for a thorough information processing style. This will reassure Abi that they have done the right thing and have the information needed to complete the course.</t>
+Why: While the "Syllabus – Weekly schedule" table provides a summary of activities and deadlines, it may not be comprehensive enough for Abi's information processing style, which involves gathering detailed information. The table lists what is "due" in class but does not provide detailed descriptions of each activity or deadline. Additionally, Abi's low computer self-efficacy might make them uncertain if they have found all the necessary information, especially if they are looking for more detailed explanations or additional context. Therefore, Abi might not feel confident that they have all the information they need to plan their term effectively.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After scrolling down to the "Course Summary" section, Abi will see a detailed weekly schedule that outlines the activities and deadlines for the course. This information is clearly presented and directly relevant to her goal of planning her term. Given her motivation to accomplish tasks and her comprehensive information processing style, Abi will recognize that she has found the necessary information and is making progress toward her goal. The detailed schedule provides all the information she needs to understand the course requirements and deadlines.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While the "Syllabus – Weekly schedule" provides a detailed list of activities and deadlines, it may not be immediately clear to Abi that this is the complete summary of activities and deadlines they need. The page also contains multiple links and sections, which could be overwhelming and confusing for someone with low computer self-efficacy. Abi might not be confident that they have found all the necessary information just by scrolling down and reading this section, as they might expect a more explicit summary or a dedicated section for deadlines and activities.</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After scrolling down to the "Course Summary" section, Abi will see a detailed weekly schedule that outlines the activities and deadlines for the course. This clear and organized presentation of information aligns with Abi's motivation to gather comprehensive details and plan their term effectively. The table format makes it easy to understand what is due each week, confirming that Abi is making progress toward their goal and has the necessary information to plan their term.</t>
+Why: While the "Syllabus – Weekly schedule" section provides a detailed list of activities and deadlines, it may not be immediately clear to Abi that this is the comprehensive summary she needs. The page contains multiple links and sections, which could be overwhelming. Abi's comprehensive information processing style means she needs to be sure she has all the necessary information, and her low computer self-efficacy might make her doubt whether she has found everything she needs. The presence of additional links and documents (e.g., "Syllabus (PDF)," "Schedule of Assignments and Quizzes for this term (PDF)") might make her unsure if she needs to check those as well to get the complete picture.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After scrolling down to the "Course Summary" section, Abi will see a detailed weekly schedule that outlines the activities and deadlines. This clear and organized presentation of information will confirm to Abi that they are making progress toward their goal of understanding what needs to be done to complete the course. The comprehensive list of readings, projects, and due dates aligns with Abi's motivation to accomplish tasks and their preference for a thorough understanding of the course requirements.</t>
+Facets: Information Processing Style, Motivations
+Why: After scrolling down to the "Course Summary" section, Abi will see a detailed weekly schedule that outlines the activities and deadlines. This clear and structured presentation of information aligns with Abi's comprehensive information processing style and her motivation to plan her term effectively. The detailed schedule provides all the necessary information, so Abi will know she is making progress toward her goal and has the information she needs.</t>
         </is>
       </c>
     </row>
@@ -660,35 +660,35 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: To complete the course successfully, Abi would need to ensure they have all the necessary tools installed and set up. This is a fundamental step in preparing for the course, as having the right tools is essential for completing assignments and projects. Given Abi's motivation to accomplish tasks and their comprehensive information processing style, they would likely consider finding a list of required tools as a crucial step toward achieving the overall use case of planning their term.</t>
+Why: To complete the course successfully, Abi will need to have the necessary tools installed and set up. This is a fundamental step in ensuring they can participate in all course activities and complete assignments. Given Abi's motivation to accomplish tasks and their comprehensive information processing style, they would consider finding a list of required tools as an essential step toward achieving their overall goal of planning their term and being prepared for the course.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: To complete the course successfully, Abi needs to ensure they have all the necessary tools installed and set up. This is a fundamental step in preparing for the coursework and aligns with Abi's motivation to accomplish tasks and gather comprehensive information. The presence of a "Tools" link on the syllabus page indicates that this information is available and necessary, making it clear to Abi that finding the list of tools is a step toward achieving the overall use case.</t>
+Why: To complete the course successfully, Abi would need to know what tools are required and ensure they are set up correctly. This is a fundamental step in preparing for the course, as having the right tools is essential for completing assignments and projects. Given Abi's motivation to accomplish tasks and their comprehensive information processing style, they would consider finding the list of tools to be installed/setup as an essential step toward achieving the overall use case. The presence of a "Tools" link on the syllabus page further supports this.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: To complete the course successfully, Abi will need to have the necessary tools installed and set up. This is a fundamental step in preparing for the coursework, and given Abi's motivation to accomplish tasks and their comprehensive information processing style, they would consider finding the list of required tools as an essential step toward achieving their overall goal of planning their term.</t>
+Why: To complete the course successfully, Abi will need to have the necessary tools installed and set up. This is a fundamental step in ensuring she can participate in all course activities and complete assignments. Given her motivation to accomplish tasks and her comprehensive information processing style, Abi would recognize that finding a list of required tools is essential for planning her term and being prepared for the coursework.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: To complete the course successfully, Abi needs to have the necessary tools installed and set up. This is a fundamental step in preparing for the coursework and ensuring they can complete assignments and projects. Given Abi's motivation to accomplish tasks and their comprehensive information processing style, they would consider finding the list of tools to be installed/setup as an essential step toward achieving the overall use case. The "Tools" link on the syllabus page suggests that this information is available and relevant.</t>
+Why: To complete the course successfully, Abi would need to ensure she has all the necessary tools installed and set up. This is a fundamental step in preparing for the coursework, and given her motivation to accomplish tasks and her comprehensive information processing style, she would recognize the importance of identifying and setting up the required tools. The presence of a "Tools" link on the syllabus page further supports this, as it indicates that there is specific information about the tools needed for the course.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: To complete the course successfully, Abi will need to have the necessary tools installed and set up. This is a fundamental step in preparing for the coursework and ensuring they can complete assignments and projects. Given Abi's motivation to accomplish tasks and their comprehensive information processing style, they would consider finding the list of tools to be installed/setup as an essential step toward achieving the overall use case. The "Tools" link on the syllabus page suggests that this information is readily accessible.</t>
+Facets: Motivations, Information Processing Style
+Why: To complete the course successfully, Abi needs to ensure she has all the necessary tools installed and set up. This is a fundamental step in preparing for the coursework and aligns with her motivation to accomplish tasks and her comprehensive information processing style. Knowing what tools are required is essential for planning her term effectively, so Abi would consider finding this information as a step toward achieving her overall goal.</t>
         </is>
       </c>
     </row>
@@ -697,35 +697,35 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Tools" tab is clearly labeled and prominently placed at the top of the page, making it easy for Abi to identify. Given Abi's motivation to accomplish tasks and their comprehensive information processing style, they would likely recognize that clicking on the "Tools" tab is a necessary step to find the list of tools required for the course. The page layout and labeling provide sufficient guidance for Abi to take this action confidently.</t>
+Why: The "Tools" tab is clearly labeled and prominently placed at the top of the page, making it easy for Abi to identify it as the next step. Given Abi's motivation to gather all necessary information to complete the course and their comprehensive information processing style, they would recognize that clicking on the "Tools" tab is a logical step to find the list of tools required for the course. The page layout and labeling provide clear guidance, making it straightforward for Abi to take this action.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Tools" tab is clearly labeled and prominently placed at the top of the page, making it easy for Abi to identify. Given Abi's motivation to gather all necessary information to complete the course and their comprehensive information processing style, they will recognize that clicking on the "Tools" tab is the appropriate action to find the list of tools to be installed or set up for the course. The page layout and labeling provide clear guidance for Abi to take this action.</t>
+Why: The "Tools" tab is clearly visible at the top of the page, and it is reasonable for Abi to infer that this tab would contain information about the tools needed for the course. Given Abi's motivation to gather all necessary information to complete the course and their comprehensive information processing style, they would likely recognize that clicking on the "Tools" tab is a logical step to find the list of tools to be installed/setup for the course. The page layout and labeling are clear enough for Abi to know what to do at this step.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "Tools" tab is clearly labeled and positioned at the top of the page, making it easy to identify. Abi's comprehensive information processing style and preference for process-oriented learning will guide them to click on the "Tools" tab to find the necessary information about the tools required for the course. The page layout and labeling provide clear guidance on what to do at this step.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Tools" tab is clearly labeled and prominently placed at the top of the page, making it easy for Abi to identify. Given her motivation to accomplish tasks and her comprehensive information processing style, Abi will recognize that clicking on the "Tools" tab is a logical step to find the list of tools needed for the course. The page layout and clear labeling provide sufficient guidance for her to take this action confidently.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Tools" tab is clearly labeled and positioned at the top of the page, making it easy to identify. Given Abi's motivation to gather comprehensive information and their need to install/setup necessary tools for the course, they would recognize that clicking on the "Tools" tab is a logical step. The page layout and labeling provide clear guidance, making it straightforward for Abi to know what to do at this step.</t>
+Why: The "Tools" tab is clearly labeled and prominently placed at the top of the page, making it easy for Abi to identify. Given her motivation to complete the course and her comprehensive information processing style, she would recognize that clicking on the "Tools" tab is a logical step to find the list of tools needed for the course. The page layout and labeling provide clear guidance, making it straightforward for her to take this action.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Tools" tab is clearly labeled and positioned at the top of the page, making it easy to identify. Given Abi's motivation to accomplish tasks and their comprehensive information processing style, they will likely recognize that clicking on the "Tools" tab is the next logical step to find the list of tools to be installed/setup for the course. The page layout and labeling support this action, making it straightforward for Abi to know what to do at this step.</t>
+Facets: Information Processing Style, Learning Style
+Why: The "Tools" tab is clearly labeled and prominently placed at the top of the page, making it easy for Abi to identify and click on it. Given Abi's comprehensive information processing style and preference for structured, process-oriented learning, she will likely recognize that clicking on the "Tools" tab is the next logical step to find the list of tools needed for the course. The page layout and labeling provide clear guidance for this action.</t>
         </is>
       </c>
     </row>
@@ -734,35 +734,35 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the "Tools" tab, Abi lands on a page that provides a detailed list of tools required for the course, including Canvas, Ed Discussion, Teams, PyCharm, GitHub, GradeScope, and Repl.it. Each tool is described with instructions on how to set it up. This aligns with Abi's motivation to accomplish tasks and their comprehensive information processing style, as the page offers clear and detailed information about the tools needed for the course. Abi will know they are making progress toward their goal and have the necessary information to proceed.</t>
+Why: After clicking on the "Tools" tab, Abi lands on a page that provides a detailed list of tools required for the course, including Canvas, Ed Discussion, Teams, PyCharm, GitHub, GradeScope, and Repl.it. Each tool is described with instructions on how to access and set it up. This aligns with Abi's motivation to gather all necessary information to complete the course and their comprehensive information processing style. The clear and structured presentation of the tools and setup instructions will help Abi know that they are making progress toward their goal and have the information they need.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the "Tools" tab, Abi will land on a page that provides a detailed list of tools required for the course, including Canvas, Ed Discussion, Teams, PyCharm, GitHub, GradeScope, and Repl.it. Each tool is described with instructions and links for setup. This comprehensive information aligns with Abi's motivation to gather all necessary details to complete the course and their preference for a thorough information processing style. The clear and organized presentation of the tools and setup instructions will make Abi feel confident that they have done the right thing and are making progress toward their goal.</t>
+Why: After clicking on the "Tools" tab, Abi lands on a page that provides detailed information about the various tools required for the course, such as Canvas, Ed Discussion, Teams, PyCharm, GitHub, GradeScope, and Repl.it. The page includes descriptions and instructions for each tool, which aligns with Abi's motivation to gather all necessary information to complete the course and their comprehensive information processing style. The detailed and organized presentation of the tools ensures that Abi knows they are making progress toward their goal and has all the information they need.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the "Tools" tab, Abi will land on a page that provides a detailed list of tools required for the course, including Canvas, Ed Discussion, Teams, PyCharm, GitHub, GradeScope, and Repl.it. The information is organized and comprehensive, which aligns with Abi's motivation to accomplish tasks and their comprehensive information processing style. Abi will know they are making progress toward their goal as the page provides all the necessary information about the tools to be installed and set up for the course.</t>
+Why: After clicking on the "Tools" tab, Abi lands on a page that provides detailed information about the various tools required for the course, such as Canvas, Ed Discussion, Teams, PyCharm, GitHub, GradeScope, and Repl.it. The page is well-organized and lists the tools along with descriptions and links for further information or installation instructions. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she will recognize that she has found the necessary information and is making progress toward her goal of planning her term and setting up the required tools.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the "Tools" tab, Abi lands on a page that provides detailed information about the tools required for the course, including Canvas, Ed Discussion, Teams, PyCharm, GitHub, GradeScope, and Repl.it. Each tool is described with instructions on how to access and use it. This aligns with Abi's motivation to gather comprehensive information and their need to install/setup necessary tools for the course. The detailed descriptions and instructions confirm that Abi is making progress toward their goal and has the necessary information to proceed.</t>
+Why: After clicking on the "Tools" tab, Abi lands on a page that provides a detailed list of tools required for the course, including Canvas, Ed Discussion, Teams, PyCharm, GitHub, GradeScope, and Repl.it. Each tool is described with instructions on how to access or set it up. This aligns with Abi's motivation to complete the course and her comprehensive information processing style, as she can see that she has found the necessary information to proceed with setting up the tools. The detailed descriptions and instructions ensure that she knows she is making progress toward her goal and has all the information she needs.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the "Tools" tab, Abi lands on a page that provides detailed information about the various tools required for the course, such as Canvas, Ed Discussion, Teams, PyCharm, GitHub, GradeScope, and Repl.it. The page is well-organized and lists the tools along with instructions and links for setup. This clear and comprehensive presentation of information will confirm to Abi that they are making progress toward their goal of understanding what needs to be done to complete the course. The detailed instructions align with Abi's motivation to accomplish tasks and their preference for a thorough understanding of the course requirements.</t>
+Facets: Information Processing Style, Motivations
+Why: After clicking on the "Tools" tab, Abi lands on a page that provides detailed information about the various tools required for the course, including Canvas, Ed Discussion, Teams, PyCharm, GitHub, GradeScope, and Repl.it. The page is well-organized and lists the tools along with descriptions and links for further information. This aligns with Abi's comprehensive information processing style and her motivation to gather all necessary information to plan her term effectively. The detailed and structured presentation of the tools will help Abi know that she is making progress toward her goal and has the information she needs.</t>
         </is>
       </c>
     </row>
